--- a/40_UT/00_UT_試験項目一覧.xlsx
+++ b/40_UT/00_UT_試験項目一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202401_dairyProduct\40_UT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE5A50-94D7-4F1F-BC50-722ECF9D5116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2ECA5-62C1-4E2B-93A1-B9C7BC5A2C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AFF61BED-48E6-43DA-A03E-30187E62C476}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -833,6 +833,36 @@
     </rPh>
     <rPh sb="3" eb="7">
       <t>ニチヨウヒンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・user_id=1 を
+　postmanから渡す
+・ItemServiceクラス
+　get_recent_items内の
+　currentDateを
+　2024/1/25とする。</t>
+    <rPh sb="23" eb="24">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザIDが１。
+・register_dateが　
+　2024/1/20。
+・span_numが14。
+・span_unitが「日」</t>
+    <rPh sb="65" eb="66">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -951,7 +981,50 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1264,8 +1337,8 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1336,7 +1409,9 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -1364,7 +1439,9 @@
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
@@ -1387,12 +1464,14 @@
         <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
@@ -1415,12 +1494,14 @@
         <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
@@ -1440,7 +1521,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>37</v>
@@ -2006,6 +2087,19 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{CF6DBB20-949F-4EF0-86D0-B2FC1E2E02CA}"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A2:J2">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>$I$2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:J32">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$I2="OK"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I2="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/40_UT/00_UT_試験項目一覧.xlsx
+++ b/40_UT/00_UT_試験項目一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202401_dairyProduct\40_UT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2ECA5-62C1-4E2B-93A1-B9C7BC5A2C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE917AA7-1E43-4C9C-94AA-89312227D6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AFF61BED-48E6-43DA-A03E-30187E62C476}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFF61BED-48E6-43DA-A03E-30187E62C476}"/>
   </bookViews>
   <sheets>
     <sheet name="試験項目" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -207,10 +207,6 @@
     <rPh sb="16" eb="19">
       <t>ケンジュンビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>null</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -603,18 +599,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ユーザIDが１。
-・register_dateが　
-　2023/1/1。
-・span_numが14。
-・span_unitが「日」
-・priceが300。</t>
-    <rPh sb="64" eb="65">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・user_id=1 を
 　postmanから渡す
 ・ItemServiceクラス
@@ -723,18 +707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ユーザIDが１。
-・register_dateが　
-　2023/12/1。
-・span_numが16。
-・span_unitが「日」
-・priceが300。</t>
-    <rPh sb="65" eb="66">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・user_id=1 を
 　postmanから渡す
 ・ItemServiceクラス
@@ -862,6 +834,40 @@
 ・span_numが14。
 ・span_unitが「日」</t>
     <rPh sb="65" eb="66">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も返ってこない</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザIDが１。
+・register_dateが　
+　2023/12/1。
+・span_numが14。
+・span_unitが「日」
+・priceが300。</t>
+    <rPh sb="65" eb="66">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザIDが１。
+・register_dateが　
+　2023/12/16。
+・span_numが16。
+・span_unitが「日」
+・priceが300。</t>
+    <rPh sb="66" eb="67">
       <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -981,32 +987,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1337,8 +1322,8 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1347,7 +1332,9 @@
     <col min="2" max="2" width="5.58203125" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" customWidth="1"/>
     <col min="4" max="4" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="20.58203125" customWidth="1"/>
+    <col min="5" max="6" width="20.58203125" customWidth="1"/>
+    <col min="7" max="7" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.58203125" customWidth="1"/>
     <col min="9" max="9" width="5.58203125" customWidth="1"/>
     <col min="10" max="10" width="20.58203125" customWidth="1"/>
   </cols>
@@ -1386,7 +1373,7 @@
     </row>
     <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -1410,13 +1397,13 @@
         <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -1437,16 +1424,16 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1455,28 +1442,28 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -1485,28 +1472,28 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -1515,26 +1502,28 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -1543,26 +1532,28 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -1571,26 +1562,28 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -1599,26 +1592,28 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -1627,26 +1622,28 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -1655,26 +1652,28 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1683,26 +1682,28 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -1711,26 +1712,28 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -1739,26 +1742,28 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1767,26 +1772,28 @@
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -1795,26 +1802,28 @@
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -1823,26 +1832,28 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -1851,26 +1862,28 @@
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
@@ -1879,26 +1892,28 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -1907,26 +1922,28 @@
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -1935,21 +1952,23 @@
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2088,15 +2107,15 @@
   <autoFilter ref="A1:J1" xr:uid="{CF6DBB20-949F-4EF0-86D0-B2FC1E2E02CA}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:J2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$I$2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J32">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$I2="OK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I2="NG"</formula>
     </cfRule>
   </conditionalFormatting>
